--- a/data/trans_dic/P25A$preocupacion-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$preocupacion-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03581424887712251</v>
+        <v>0.03531611978562337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0396275154722656</v>
+        <v>0.04089270797945228</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05051453144791528</v>
+        <v>0.04978423708191004</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01363261903230297</v>
+        <v>0.01357062522985338</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05138478970363854</v>
+        <v>0.05205098828398787</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03354365841689283</v>
+        <v>0.03430757763023817</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0380410495840991</v>
+        <v>0.03832224854996402</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05542094166655263</v>
+        <v>0.05867384368246755</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09062365658240405</v>
+        <v>0.08832456929279371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0918868092166652</v>
+        <v>0.09505982300476848</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.127635125802535</v>
+        <v>0.1217069448696264</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1380982729975099</v>
+        <v>0.1387707491365794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1174879903943013</v>
+        <v>0.1217221867723824</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2605776317413359</v>
+        <v>0.2739970634069595</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08253961027079779</v>
+        <v>0.08545530679602083</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0846910248834324</v>
+        <v>0.08708150822330671</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1263889468389184</v>
+        <v>0.1304718895935576</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05611522240574823</v>
+        <v>0.05895696435324138</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05929605494379315</v>
+        <v>0.06225017205092057</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08951547719604989</v>
+        <v>0.08753699357515091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06087227542667745</v>
+        <v>0.06233917046156175</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04759084875638974</v>
+        <v>0.04839752567728802</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03363359150303212</v>
+        <v>0.02925216757008842</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06842846259295188</v>
+        <v>0.06721151720012204</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06442554904440091</v>
+        <v>0.06400898005869947</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0758315469642822</v>
+        <v>0.07609294639586507</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1338356990300917</v>
+        <v>0.1374055301217441</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1273913086806829</v>
+        <v>0.1230573621917215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1715484062980137</v>
+        <v>0.1645714010709191</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1625042902869189</v>
+        <v>0.1621719201756765</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.120922276254032</v>
+        <v>0.1320581542307935</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1124378129566376</v>
+        <v>0.1040478874907761</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1295715456369824</v>
+        <v>0.1256162556795818</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1127496292896948</v>
+        <v>0.1161801875538501</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1317123326007148</v>
+        <v>0.1295354366379257</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04558967638533752</v>
+        <v>0.04729020139085335</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04718832047376765</v>
+        <v>0.04693444483907006</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09895682340092772</v>
+        <v>0.1023401339271585</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02296831215980115</v>
+        <v>0.02278884370958512</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05607668714962102</v>
+        <v>0.05161721949867652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05424396761415554</v>
+        <v>0.05329716702371538</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05115965890577739</v>
+        <v>0.04888617814957288</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06710706803161888</v>
+        <v>0.06373165395922158</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08663658190323341</v>
+        <v>0.09126172303562954</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1733304687135052</v>
+        <v>0.1838856827507288</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1722888409858168</v>
+        <v>0.1630692194680592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2729711436653044</v>
+        <v>0.2796038282016816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1680174611859276</v>
+        <v>0.1920756414171997</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2004795526413772</v>
+        <v>0.2075413354967904</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1885207847999422</v>
+        <v>0.1809108062016702</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1546270408620377</v>
+        <v>0.1570380334066737</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.162804403657983</v>
+        <v>0.1550177549843682</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1932156254216336</v>
+        <v>0.2022554520070494</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05715365578875142</v>
+        <v>0.05794984660646149</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05839703481592941</v>
+        <v>0.05980414876009399</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09175707385840749</v>
+        <v>0.09139385384022725</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05250905725773924</v>
+        <v>0.04993539217509981</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05663635235023463</v>
+        <v>0.0542529977100069</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0566002398085578</v>
+        <v>0.0541474674145484</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06079764237681053</v>
+        <v>0.06098240817162693</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06428894628481133</v>
+        <v>0.06337019256574011</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.08448240135234475</v>
+        <v>0.08503388742798172</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09786552581809721</v>
+        <v>0.1010134983900537</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09904152582770405</v>
+        <v>0.09913319250345164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1433543878913637</v>
+        <v>0.1439833858663452</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1257362427040537</v>
+        <v>0.1234401494342848</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1176956717851078</v>
+        <v>0.1137672476144442</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1158368777260382</v>
+        <v>0.1144777221512234</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09693515835949419</v>
+        <v>0.09692007762438039</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09844012968822373</v>
+        <v>0.09726468729139473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1267535705256512</v>
+        <v>0.1291384738073403</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10854</v>
+        <v>10703</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14744</v>
+        <v>15215</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10599</v>
+        <v>10446</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1934</v>
+        <v>1959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11781</v>
+        <v>12050</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16782</v>
+        <v>16906</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>13714</v>
+        <v>14519</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27465</v>
+        <v>26769</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34188</v>
+        <v>35369</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26780</v>
+        <v>25536</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6651</v>
+        <v>6683</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8115</v>
+        <v>8408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9806</v>
+        <v>10311</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28990</v>
+        <v>30014</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>37361</v>
+        <v>38415</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>31275</v>
+        <v>32285</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13303</v>
+        <v>13977</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>20620</v>
+        <v>21647</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27037</v>
+        <v>26440</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9205</v>
+        <v>9427</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11426</v>
+        <v>11620</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6763</v>
+        <v>5882</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>26569</v>
+        <v>26097</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>37871</v>
+        <v>37626</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>38152</v>
+        <v>38283</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31727</v>
+        <v>32574</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44299</v>
+        <v>42792</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51815</v>
+        <v>49707</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>24573</v>
+        <v>24523</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>29032</v>
+        <v>31706</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22608</v>
+        <v>20921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>50310</v>
+        <v>48774</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66277</v>
+        <v>68294</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>66266</v>
+        <v>65171</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3849</v>
+        <v>3993</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4542</v>
+        <v>4518</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8868</v>
+        <v>9171</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4341</v>
+        <v>3995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5157</v>
+        <v>5067</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6947</v>
+        <v>6639</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11654</v>
+        <v>11068</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>16000</v>
+        <v>16854</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14635</v>
+        <v>15526</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16585</v>
+        <v>15698</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24461</v>
+        <v>25056</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8630</v>
+        <v>9865</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15518</v>
+        <v>16064</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>17922</v>
+        <v>17199</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20998</v>
+        <v>21325</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28274</v>
+        <v>26921</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>35683</v>
+        <v>37353</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>35696</v>
+        <v>36194</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>47656</v>
+        <v>48805</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>55189</v>
+        <v>54971</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13166</v>
+        <v>12521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>21894</v>
+        <v>20972</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>18891</v>
+        <v>18073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>53216</v>
+        <v>53378</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>77316</v>
+        <v>76211</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79011</v>
+        <v>79527</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>61124</v>
+        <v>63090</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>80825</v>
+        <v>80900</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>86224</v>
+        <v>86602</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>31526</v>
+        <v>30951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45497</v>
+        <v>43978</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38663</v>
+        <v>38209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84848</v>
+        <v>84834</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>118388</v>
+        <v>116974</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>118545</v>
+        <v>120776</v>
       </c>
     </row>
     <row r="20">
